--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -886,6 +886,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,12 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,7 +1470,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2827,13 +2827,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2845,13 +2845,13 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -2861,31 +2861,31 @@
       <c r="C6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -2932,18 +2932,18 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA114"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3211,12 +3211,12 @@
       <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="13" t="s">
         <v>41</v>
       </c>
@@ -3226,12 +3226,12 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="11" t="s">
         <v>61</v>
       </c>
@@ -3241,12 +3241,12 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="11" t="s">
         <v>65</v>
       </c>
@@ -3254,12 +3254,12 @@
     </row>
     <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="11" t="s">
         <v>62</v>
       </c>
@@ -3269,12 +3269,12 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="11" t="s">
         <v>62</v>
       </c>
@@ -3473,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3563,9 +3563,9 @@
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -3591,12 +3591,12 @@
       <c r="B18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="17" t="s">
         <v>41</v>
       </c>
@@ -3606,12 +3606,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="18" t="s">
         <v>65</v>
       </c>
@@ -3619,12 +3619,12 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="18" t="s">
         <v>61</v>
       </c>
@@ -3632,12 +3632,12 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="18" t="s">
         <v>61</v>
       </c>
@@ -3656,27 +3656,27 @@
       <c r="G22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -591,43 +591,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>직선상의 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원기둥 형태의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용한 시점부터 끌어 모으기 전에 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용하는중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_InstallRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_installSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_UseTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_EffectRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>전조 동작 시간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬이 시전 되는 시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선상의 공격 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 폄으로 이동했을때의 속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">원기둥 형태의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용한 시점부터 끌어 모으기 전에 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용하는중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
+    <t>스킬3번을 끝내는 모션의 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번을 반복해서 사용하는 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 총시전  시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 옆으로 이동했을때의 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_SignMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_LoopMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_EndMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_MaxTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_VeamSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -871,9 +919,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,6 +936,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2105,13 +2153,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2159,13 +2207,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666134</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>4987</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>162966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2197,13 +2245,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219801</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1105066</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2241,13 +2289,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200751</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2285,13 +2333,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2339,13 +2387,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>643862</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2393,13 +2441,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2437,13 +2485,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2491,13 +2539,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2995,7 +3043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3132,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3225,7 +3273,9 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="C33" s="27" t="s">
         <v>70</v>
       </c>
@@ -3240,7 +3290,9 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="C34" s="28" t="s">
         <v>64</v>
       </c>
@@ -3253,7 +3305,9 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="C35" s="27" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3322,9 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="C36" s="27" t="s">
         <v>59</v>
       </c>
@@ -3343,7 +3399,7 @@
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3364,7 +3420,7 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
@@ -3434,16 +3490,16 @@
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q107" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q107" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
@@ -3471,15 +3527,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I70"/>
+  <dimension ref="B2:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
@@ -3525,13 +3581,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3563,9 +3619,9 @@
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -3588,7 +3644,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -3597,206 +3653,246 @@
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="C19" s="28" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="18" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="19" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>135</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I71" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>136</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>137</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I72" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3809,7 +3905,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -419,263 +419,287 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 끌어들이는 이펙트 시작과 함께 몬스터 중심 위치에서 이동 시작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 작동 된후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 스킬 작동 룰 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전시 스킬의 방향을 캐릭터의 직선 방향으로 시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 빔의 좌우 위치를 마우스로 변경가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 작동 시간 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 작동시 전조 동작중엔 지속시간, 쿨타임이 작동하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 시전되어 사용상태로 들어갈시 지속시간, 쿨타임 체크를 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작되기 전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작된 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번의 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2,3번 확정 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캔슬 기능과 지속시간을 적용해 타이밍을 계산, 사용시 강한 딜링이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬은 시전중 회피로 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 시전이 끝나면 Idle모션으로 바로 돌아옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 이동처리는 받지 않지만 화면처리는 받음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼은 한번만 누리면 발동되며 중간 캔슬은 회피로만 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 로직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전전 작동중일때 캔슬하면 5초의 쿨타임을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 동작 중 작은 이펙트로 진행도 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 루프되는 이펙트 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선상의 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원기둥 형태의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용하는중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_InstallRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_installSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_UseTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_EffectRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 동작 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번을 끝내는 모션의 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번을 반복해서 사용하는 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 총시전  시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 옆으로 이동했을때의 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_SignMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_LoopMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_EndMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_MaxTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_VeamSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 3번 값 입력, 애니, 이펙트 협의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.5초의 끌어오는 시간에 대미를 입힘.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">예시 레퍼런스 (커츠펠 https://www.youtube.com/watch?v=sMZQ0a55Feg&amp;feature=youtu.be 1분 15초) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 끌어들이는 이펙트 시작과 함께 몬스터 중심 위치에서 이동 시작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 작동 된후 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 스킬 작동 룰 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전시 스킬의 방향을 캐릭터의 직선 방향으로 시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 캔슬이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 빔의 좌우 위치를 마우스로 변경가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 작동 시간 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 작동시 전조 동작중엔 지속시간, 쿨타임이 작동하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 시전되어 사용상태로 들어갈시 지속시간, 쿨타임 체크를 시작함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이 시작되기 전 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이 시작된 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번의 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.08.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2,3번 확정 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 캔슬 기능과 지속시간을 적용해 타이밍을 계산, 사용시 강한 딜링이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬은 시전중 회피로 캔슬이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 시전이 끝나면 Idle모션으로 바로 돌아옴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 이동처리는 받지 않지만 화면처리는 받음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 버튼은 한번만 누리면 발동되며 중간 캔슬은 회피로만 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 로직</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 예시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전전 작동중일때 캔슬하면 5초의 쿨타임을 가짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 동작 중 작은 이펙트로 진행도 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 루프되는 이펙트 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선상의 공격 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">원기둥 형태의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용한 시점부터 끌어 모으기 전에 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용하는중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_InstallRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_installSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_UseTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_EffectRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 동작 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번을 끝내는 모션의 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번을 반복해서 사용하는 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬이 총시전  시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 옆으로 이동했을때의 속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_SignMotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_LoopMotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_EndMotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_MaxTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_AttackRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_VeamSpeed</t>
+    <t xml:space="preserve"> - 스킬 사용하는 모션은 0.5초의 시간을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 끝낸느 모션은 0.5초의 시간을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 쏘는 모션은 0.5초의 시간을 가지며 3초간 반복 시킬수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트의 총 시간은 2초이며 1.5초간 범위를 보여주고 0.5초간 끌어오는 이펙트를 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사용 모션의 길이는 1~1.5초임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1345,13 +1369,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>574298</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1395,13 +1419,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>686359</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>488575</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>141374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1495,14 +1519,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>633691</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>397808</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>39296</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>39297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1545,13 +1569,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>246531</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>13015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1595,14 +1619,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>63323</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>63324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1645,13 +1669,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>102881</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>29185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1689,13 +1713,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>661155</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>506299</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>29185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1733,13 +1757,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504271</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>880788</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1787,13 +1811,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>212919</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123273</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1842,13 +1866,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>862856</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>405441</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>152450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1886,13 +1910,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>448239</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>141197</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1940,13 +1964,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>156886</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>403417</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1995,13 +2019,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>605120</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>450264</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>152450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2039,13 +2063,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>268944</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>459444</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2093,13 +2117,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>156887</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>560300</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2153,13 +2177,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2207,13 +2231,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4987</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>162966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2245,13 +2269,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1105066</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2289,13 +2313,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200751</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2333,13 +2357,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2387,13 +2411,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>643862</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2441,13 +2465,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2485,13 +2509,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2539,13 +2563,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2858,7 +2882,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2904,13 +2928,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -2919,9 +2943,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -3178,10 +3208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA114"/>
+  <dimension ref="A2:AA113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3222,12 +3252,12 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -3274,7 +3304,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>70</v>
@@ -3291,7 +3321,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>64</v>
@@ -3306,7 +3336,7 @@
     </row>
     <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>60</v>
@@ -3323,7 +3353,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>59</v>
@@ -3373,137 +3403,142 @@
         <v>77</v>
       </c>
     </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>90</v>
+      <c r="B49" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>102</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="4" t="s">
-        <v>91</v>
+      <c r="B55" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="18" t="s">
-        <v>101</v>
+      <c r="B56" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B84" s="8" t="s">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J83" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S84" s="8" t="s">
+      <c r="S83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA84" s="8" t="s">
+      <c r="AA83" s="8" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B91" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="J91" s="4" t="s">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="J90" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="Q91" s="4" t="s">
+      <c r="K90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="Q90" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R91" s="4"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B107" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q107" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="4" t="s">
+      <c r="R90" s="4"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B106" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q106" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3527,10 +3562,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I72"/>
+  <dimension ref="B2:I75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3567,7 +3602,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -3577,44 +3612,44 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="15"/>
     </row>
@@ -3662,10 +3697,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -3677,10 +3712,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -3692,10 +3727,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -3707,10 +3742,10 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -3722,10 +3757,10 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -3734,15 +3769,15 @@
         <v>61</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -3774,114 +3809,127 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>100</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="D74" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+      <c r="I74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" t="s">
         <v>134</v>
       </c>
-      <c r="D71" t="s">
-        <v>135</v>
-      </c>
-      <c r="I71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+      <c r="I75" t="s">
         <v>136</v>
-      </c>
-      <c r="D72" t="s">
-        <v>137</v>
-      </c>
-      <c r="I72" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -419,215 +419,287 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 끌어들이는 이펙트 시작과 함께 몬스터 중심 위치에서 이동 시작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 작동 된후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 스킬 작동 룰 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전시 스킬의 방향을 캐릭터의 직선 방향으로 시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 빔의 좌우 위치를 마우스로 변경가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 작동 시간 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 작동시 전조 동작중엔 지속시간, 쿨타임이 작동하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 시전되어 사용상태로 들어갈시 지속시간, 쿨타임 체크를 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작되기 전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작된 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번의 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2,3번 확정 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캔슬 기능과 지속시간을 적용해 타이밍을 계산, 사용시 강한 딜링이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬은 시전중 회피로 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 시전이 끝나면 Idle모션으로 바로 돌아옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 이동처리는 받지 않지만 화면처리는 받음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼은 한번만 누리면 발동되며 중간 캔슬은 회피로만 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 로직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전전 작동중일때 캔슬하면 5초의 쿨타임을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 동작 중 작은 이펙트로 진행도 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 루프되는 이펙트 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선상의 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원기둥 형태의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용하는중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_InstallRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_installSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_UseTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_EffectRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 동작 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번을 끝내는 모션의 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번을 반복해서 사용하는 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 총시전  시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 옆으로 이동했을때의 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_SignMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_LoopMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_EndMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_MaxTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_VeamSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 3번 값 입력, 애니, 이펙트 협의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.5초의 끌어오는 시간에 대미를 입힘.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">예시 레퍼런스 (커츠펠 https://www.youtube.com/watch?v=sMZQ0a55Feg&amp;feature=youtu.be 1분 15초) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 끌어들이는 이펙트 시작과 함께 몬스터 중심 위치에서 이동 시작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 작동 된후 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 스킬 작동 룰 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전시 스킬의 방향을 캐릭터의 직선 방향으로 시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 캔슬이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 빔의 좌우 위치를 마우스로 변경가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 작동 시간 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 작동시 전조 동작중엔 지속시간, 쿨타임이 작동하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 시전되어 사용상태로 들어갈시 지속시간, 쿨타임 체크를 시작함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이 시작되기 전 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이 시작된 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번의 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.08.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2,3번 확정 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 캔슬 기능과 지속시간을 적용해 타이밍을 계산, 사용시 강한 딜링이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬은 시전중 회피로 캔슬이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 시전이 끝나면 Idle모션으로 바로 돌아옴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 이동처리는 받지 않지만 화면처리는 받음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 버튼은 한번만 누리면 발동되며 중간 캔슬은 회피로만 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 로직</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 예시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전전 작동중일때 캔슬하면 5초의 쿨타임을 가짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 동작 중 작은 이펙트로 진행도 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 루프되는 이펙트 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 동작 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬이 시전 되는 시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선상의 공격 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 폄으로 이동했을때의 속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">원기둥 형태의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용한 시점부터 끌어 모으기 전에 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용하는중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
+    <t xml:space="preserve"> - 스킬 사용하는 모션은 0.5초의 시간을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 끝낸느 모션은 0.5초의 시간을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 쏘는 모션은 0.5초의 시간을 가지며 3초간 반복 시킬수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트의 총 시간은 2초이며 1.5초간 범위를 보여주고 0.5초간 끌어오는 이펙트를 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사용 모션의 길이는 1~1.5초임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -871,9 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,6 +960,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,13 +1369,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>574298</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1347,13 +1419,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>686359</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>488575</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>141374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1447,14 +1519,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>633691</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>397808</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>39296</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>39297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1497,13 +1569,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>246531</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>13015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1547,14 +1619,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>63323</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>63324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1597,13 +1669,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>102881</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>29185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,13 +1713,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>661155</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>506299</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>29185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1685,13 +1757,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504271</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>880788</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1739,13 +1811,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>212919</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123273</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1794,13 +1866,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>862856</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>405441</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>152450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1838,13 +1910,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>448239</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>141197</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1892,13 +1964,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>156886</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>403417</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1947,13 +2019,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>605120</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>450264</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>152450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1991,13 +2063,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>268944</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>459444</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2045,13 +2117,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>156887</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>560300</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2105,13 +2177,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2159,13 +2231,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666134</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>4987</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>162966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2197,13 +2269,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219801</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1105066</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2241,13 +2313,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200751</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2285,13 +2357,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2339,13 +2411,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>643862</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2393,13 +2465,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2437,13 +2509,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2491,13 +2563,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2810,7 +2882,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2856,13 +2928,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -2871,9 +2943,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -2995,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3130,10 +3208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA114"/>
+  <dimension ref="A2:AA113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3174,12 +3252,12 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -3225,7 +3303,9 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="C33" s="27" t="s">
         <v>70</v>
       </c>
@@ -3240,7 +3320,9 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="C34" s="28" t="s">
         <v>64</v>
       </c>
@@ -3253,7 +3335,9 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="C35" s="27" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3352,9 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="C36" s="27" t="s">
         <v>59</v>
       </c>
@@ -3317,137 +3403,142 @@
         <v>77</v>
       </c>
     </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>90</v>
+      <c r="B49" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>102</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="4" t="s">
-        <v>91</v>
+      <c r="B55" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="19" t="s">
-        <v>101</v>
+      <c r="B56" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B84" s="8" t="s">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J83" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S84" s="8" t="s">
+      <c r="S83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA84" s="8" t="s">
+      <c r="AA83" s="8" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B91" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="J91" s="4" t="s">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="J90" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="Q91" s="4" t="s">
+      <c r="K90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="Q90" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R91" s="4"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B107" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q107" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="4" t="s">
+      <c r="R90" s="4"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B106" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q106" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3471,15 +3562,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I70"/>
+  <dimension ref="B2:I75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
@@ -3511,7 +3602,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -3521,51 +3612,51 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -3588,7 +3679,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -3597,206 +3688,259 @@
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="C19" s="28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="18" t="s">
+      <c r="B20" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="18" t="s">
+      <c r="B21" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>144</v>
-      </c>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="18" t="s">
+      <c r="B22" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+      <c r="D75" t="s">
         <v>134</v>
       </c>
-      <c r="D69" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+      <c r="I75" t="s">
         <v>136</v>
       </c>
-      <c r="D70" t="s">
-        <v>137</v>
-      </c>
-      <c r="I70" t="s">
-        <v>139</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3809,7 +3953,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="197">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">3. 스킬3 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 궁극기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -419,51 +415,367 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 끌어들이는 이펙트 시작과 함께 몬스터 중심 위치에서 이동 시작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 작동 된후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전시 스킬의 방향을 캐릭터의 직선 방향으로 시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 빔의 좌우 위치를 마우스로 변경가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 작동시 전조 동작중엔 지속시간, 쿨타임이 작동하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 시전되어 사용상태로 들어갈시 지속시간, 쿨타임 체크를 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작되기 전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작된 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번의 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2,3번 확정 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캔슬 기능과 지속시간을 적용해 타이밍을 계산, 사용시 강한 딜링이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬은 시전중 회피로 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 시전이 끝나면 Idle모션으로 바로 돌아옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 이동처리는 받지 않지만 화면처리는 받음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼은 한번만 누리면 발동되며 중간 캔슬은 회피로만 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 로직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전전 작동중일때 캔슬하면 5초의 쿨타임을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 동작 중 작은 이펙트로 진행도 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 루프되는 이펙트 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선상의 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원기둥 형태의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용하는중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_installSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_UseTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_EffectRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번을 끝내는 모션의 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번을 반복해서 사용하는 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 총시전  시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 옆으로 이동했을때의 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_SignMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_LoopMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_EndMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_MaxTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_VeamSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.5초의 끌어오는 시간에 대미를 입힘.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용하는 모션은 0.5초의 시간을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 쏘는 모션은 0.5초의 시간을 가지며 3초간 반복 시킬수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트의 총 시간은 2초이며 1.5초간 범위를 보여주고 0.5초간 끌어오는 이펙트를 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사용 모션의 길이는 1~1.5초임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작을 여러 번하며 공격함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간마다 공격방식이 추가됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 3번 명칭 입력, 애니, 이펙트 협의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 2, 3번 값 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 사용하는 모션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 버튼을 누르고 있을시 최대 3초간 반복 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전되고 땔시 적어도 0.5초 사용됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 을 3초이상 누를시 자동으로 스킬이 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 궁극기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 스킬 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_installRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예시 레퍼런스 (커츠펠 https://www.youtube.com/watch?v=sMZQ0a55Feg&amp;feature=youtu.be 1분 15초) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 끌어들이는 이펙트 시작과 함께 몬스터 중심 위치에서 이동 시작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 작동 된후 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 스킬 작동 룰 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전시 스킬의 방향을 캐릭터의 직선 방향으로 시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 캔슬이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 빔의 좌우 위치를 마우스로 변경가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 작동 시간 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 작동시 전조 동작중엔 지속시간, 쿨타임이 작동하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 시전되어 사용상태로 들어갈시 지속시간, 쿨타임 체크를 시작함.</t>
+    <t>설치 위치 : 플레이어의 vector3.forward 의 거리값 지정(수정 가능)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초동안 Skill2 Ani 실행 후.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 변환하기 전 EndState에서 Skill2Effect 실행.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2Effect = 2초 동안 실행(콜라이더 enabled false) 후 1초 동안 Enabled true 시켜주면서 주변 몬스터를 콜라이더 중심값으로 최대한 가까이 모으며, 모이기 시작할 때 데미지 줌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이때 이미 애니2는 끝났으므로 타이밍 맞춰서 스킬3이나 1 연계 가능.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 끝내는 모션은 0.5초의 시간을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사용시 앰프와 스포트라이트 가 순차적으로 등장하고 순서에 맞쳐 공격함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기가 진행되는 시간에 따라 점점 타수가 추가 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 변신을 사용시 한번 사용할 수 있으며 강력한 공격기, 생존기로 사용이 가능함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -471,235 +783,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이 시작되기 전 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이 시작된 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번의 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.08.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2,3번 확정 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 캔슬 기능과 지속시간을 적용해 타이밍을 계산, 사용시 강한 딜링이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬은 시전중 회피로 캔슬이 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 시전이 끝나면 Idle모션으로 바로 돌아옴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 이동처리는 받지 않지만 화면처리는 받음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 버튼은 한번만 누리면 발동되며 중간 캔슬은 회피로만 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 로직</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 예시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전전 작동중일때 캔슬하면 5초의 쿨타임을 가짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 동작 중 작은 이펙트로 진행도 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시전중 루프되는 이펙트 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선상의 공격 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">원기둥 형태의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용하는중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
+    <t>3.2 스킬 데이터 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 스킬 데이터 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 스킬 작동 룰 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 작동 시간 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 스킬 작동 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 스킬 작동 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 예외처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_InstallRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_installSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_UseTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2_EffectRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 동작 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번을 끝내는 모션의 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번을 반복해서 사용하는 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬이 총시전  시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 옆으로 이동했을때의 속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_SignMotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_LoopMotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_EndMotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_MaxTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_AttackRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_VeamSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.08.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2, 3번 값 입력, 애니, 이펙트 협의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 0.5초의 끌어오는 시간에 대미를 입힘.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">예시 레퍼런스 (커츠펠 https://www.youtube.com/watch?v=sMZQ0a55Feg&amp;feature=youtu.be 1분 15초) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 사용하는 모션은 0.5초의 시간을 가짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 끝낸느 모션은 0.5초의 시간을 가짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 쏘는 모션은 0.5초의 시간을 가지며 3초간 반복 시킬수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이펙트의 총 시간은 2초이며 1.5초간 범위를 보여주고 0.5초간 끌어오는 이펙트를 출력함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 사용 모션의 길이는 1~1.5초임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +1080,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,12 +1122,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,15 +1144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,13 +1518,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>574298</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1417,15 +1566,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>686359</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>488575</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>141374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1474,7 +1623,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38569</xdr:colOff>
+      <xdr:colOff>1058304</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>31280</xdr:rowOff>
     </xdr:to>
@@ -1517,16 +1666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>633691</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>397808</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>39297</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>397807</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>39296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,15 +1716,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>246531</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>13015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1619,14 +1768,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>63324</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>63323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1669,13 +1818,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>102881</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>29185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1713,13 +1862,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>661155</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>506299</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>29185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1755,15 +1904,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>504271</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>880788</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1809,15 +1958,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>212919</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>123273</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1864,15 +2013,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>862856</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>405441</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>152450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1908,15 +2057,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>448239</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>141197</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1962,15 +2111,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>156886</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>403417</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2017,15 +2166,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>605120</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>450264</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>450265</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>152450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2061,15 +2210,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>268944</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>459444</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2115,15 +2264,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>156887</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>560300</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2177,13 +2326,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2231,13 +2380,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4987</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>968693</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>162966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2269,13 +2418,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1105066</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2313,13 +2462,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200751</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2357,13 +2506,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2411,13 +2560,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>643862</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2463,15 +2612,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2507,15 +2656,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2561,15 +2710,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2879,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2899,13 +3048,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2917,92 +3066,104 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -3010,58 +3171,93 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
+  <mergeCells count="8">
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3101,12 +3297,12 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
@@ -3208,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA113"/>
+  <dimension ref="A2:AB145"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3219,10 +3415,10 @@
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="15.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="22.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="4" max="8" width="9" style="8"/>
+    <col min="9" max="9" width="22.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="33.75" x14ac:dyDescent="0.3">
@@ -3237,313 +3433,383 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="13" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="25">
+        <v>10</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="25">
+        <v>2</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="11" t="s">
+      <c r="I35" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="25">
+        <v>6</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="25">
+        <v>10</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
-        <v>99</v>
+      <c r="B55" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
-        <v>80</v>
+      <c r="B56" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B83" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J83" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S83" s="8" t="s">
+      <c r="K84" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T84" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB84" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA83" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B89" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="R91" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="J90" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="Q90" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B106" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q106" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="4" t="s">
-        <v>93</v>
+      <c r="S91" s="4"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B107" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R107" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C37:F37"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C35:F35"/>
@@ -3562,105 +3828,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I75"/>
+  <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3668,8 +3935,9 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3677,263 +3945,317 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="16" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="C22" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="25">
+        <v>5</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="25">
+        <v>10</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="27">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="27">
+        <v>20</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="18" t="s">
-        <v>102</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
-        <v>103</v>
+      <c r="B33" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>106</v>
+      <c r="B37" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
-        <v>107</v>
-      </c>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="18" t="s">
-        <v>123</v>
+      <c r="B40" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
+      <c r="B45" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="D78" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="J78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
+      <c r="D79" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" t="s">
-        <v>132</v>
-      </c>
-      <c r="I74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>133</v>
-      </c>
-      <c r="D75" t="s">
-        <v>134</v>
-      </c>
-      <c r="I75" t="s">
-        <v>136</v>
+      <c r="J79" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C22:F22"/>
@@ -3950,21 +4272,221 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="30"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="30"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="30"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="30"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="30"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -807,11 +807,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4 스킬 작동 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4.5 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 스킬 시간 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 공격 추가 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 변신을 한 상태일때 한번 궁극기를 사용할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기 버튼은 변신을 하면 활성화 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기 버튼을 누를시 바로 작동함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기는 전조 모션이 없고 발동되면 무적 상태임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기는 캔슬이 불가능 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기는 총 8초 의 시간을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기는 2초마 타격 방식이 추가됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기는 8초의 공격타임후 마무리 공격을 함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4272,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L43"/>
+  <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4461,17 +4497,62 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="221">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -807,10 +807,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4.4 스킬 시간 룰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -843,15 +839,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 궁극기는 2초마 타격 방식이 추가됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 궁극기는 8초의 공격타임후 마무리 공격을 함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 궁극기 버튼을 누른 시점부터 시간이 진행됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 마루리 공격후 궁극기 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기는 3초마 타격 방식이 추가됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 타수가 추가되도 전에 있던 공격은 유지됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 7~8초 까지 마무리 일격을 사용하여 강한 한번공격을 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 6~7초 까지 무대 효과가 나오며 0.2초 마다 타수가 추가됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 3~6초 까지 스포트 라이트가 나와 적을 공격 1초 마다 공격함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0~3초 까지 앰프에서 공격이 나가며 0.6초 마다 공격함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 마무리 공격과 함께 모든 공격은 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기를 사용하는 도중엔 무적 상태.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기를 사용하는 도중엔 조작을 할 수 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기는 변신중 단 한번만 사용가능함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6 공격 판정 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 궁극기가 시작되면 캐릭터의 전방에 정해진 범위만큼 공격하게 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 공격은 정해진 범위 만큼 공격함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3443,7 +3503,7 @@
   <dimension ref="A2:AB145"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3866,7 +3926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -4308,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L51"/>
+  <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4497,62 +4557,137 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -912,6 +912,10 @@
   </si>
   <si>
     <t xml:space="preserve"> - 모든 공격은 정해진 범위 만큼 공격함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격판정은 0.5초마다 들어가고 최대 6번, 3초간 공격할 수 있음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3926,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4247,7 +4251,9 @@
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
+      <c r="B38" s="18" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -4370,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="221">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -711,14 +711,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전되고 땔시 적어도 0.5초 사용됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 을 3초이상 누를시 자동으로 스킬이 종료됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 궁극기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -916,6 +908,10 @@
   </si>
   <si>
     <t xml:space="preserve"> - 공격판정은 0.5초마다 들어가고 최대 6번, 3초간 공격할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 을 3초동안 자동으로 사용되고 스킬이 종료됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2426,13 +2422,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2480,14 +2476,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>968693</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>162966</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>162967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2518,13 +2514,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1105066</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2562,13 +2558,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200751</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2606,13 +2602,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2660,13 +2656,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>643862</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2714,13 +2710,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2758,13 +2754,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2812,13 +2808,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3548,12 +3544,12 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -3603,7 +3599,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>69</v>
@@ -3681,7 +3677,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>166</v>
@@ -3884,27 +3880,27 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3928,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J79"/>
+  <dimension ref="B2:J78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4027,7 +4023,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4212,146 +4208,141 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>171</v>
+      <c r="B33" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="18" t="s">
-        <v>101</v>
+      <c r="B39" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>191</v>
+      <c r="B40" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
+      <c r="B48" s="18"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
-        <v>192</v>
+      <c r="B51" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" t="s">
+        <v>126</v>
+      </c>
+      <c r="J77" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" t="s">
-        <v>128</v>
-      </c>
-      <c r="J79" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4376,7 +4367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -4389,22 +4380,22 @@
   <sheetData>
     <row r="2" spans="2:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L6" t="s">
         <v>157</v>
@@ -4412,7 +4403,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
         <v>158</v>
@@ -4420,7 +4411,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -4463,7 +4454,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -4558,142 +4549,142 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -707,10 +707,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 스킬 버튼을 누르고 있을시 최대 3초간 반복 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 궁극기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -912,6 +908,14 @@
   </si>
   <si>
     <t xml:space="preserve"> - 스킬 을 3초동안 자동으로 사용되고 스킬이 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4_SignMotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 버튼을 한번 누를시 최대 3초간 반복 가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,6 +1211,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3144,13 +3151,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3162,13 +3169,13 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -3178,13 +3185,13 @@
       <c r="C6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -3194,13 +3201,13 @@
       <c r="C7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -3210,13 +3217,13 @@
       <c r="C8" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -3250,11 +3257,11 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -3301,18 +3308,18 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
@@ -3544,12 +3551,12 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -3581,12 +3588,12 @@
       <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="24" t="s">
         <v>163</v>
       </c>
@@ -3599,14 +3606,14 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="25">
         <v>10</v>
       </c>
@@ -3621,12 +3628,12 @@
       <c r="B34" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="26">
         <v>1.5</v>
       </c>
@@ -3639,12 +3646,12 @@
       <c r="B35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="25">
         <v>2</v>
       </c>
@@ -3659,12 +3666,12 @@
       <c r="B36" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="25">
         <v>6</v>
       </c>
@@ -3677,14 +3684,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="25">
         <v>10</v>
       </c>
@@ -3880,27 +3887,27 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3926,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4023,7 +4030,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4047,12 +4054,12 @@
       <c r="B18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="24" t="s">
         <v>162</v>
       </c>
@@ -4067,12 +4074,12 @@
       <c r="B19" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="26">
         <v>0.5</v>
       </c>
@@ -4085,12 +4092,12 @@
       <c r="B20" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="26">
         <v>0.5</v>
       </c>
@@ -4103,12 +4110,12 @@
       <c r="B21" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="26">
         <v>0.5</v>
       </c>
@@ -4121,12 +4128,12 @@
       <c r="B22" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="25">
         <v>5</v>
       </c>
@@ -4139,12 +4146,12 @@
       <c r="B23" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="25">
         <v>10</v>
       </c>
@@ -4159,12 +4166,12 @@
       <c r="B24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="27">
         <v>1</v>
       </c>
@@ -4177,12 +4184,12 @@
       <c r="B25" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="27">
         <v>20</v>
       </c>
@@ -4208,17 +4215,17 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -4243,7 +4250,7 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
@@ -4253,7 +4260,7 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
@@ -4283,7 +4290,7 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
@@ -4301,7 +4308,7 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
@@ -4368,7 +4375,7 @@
   <dimension ref="B2:L65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4380,22 +4387,22 @@
   <sheetData>
     <row r="2" spans="2:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
         <v>157</v>
@@ -4403,7 +4410,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L7" t="s">
         <v>158</v>
@@ -4411,7 +4418,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -4454,19 +4461,19 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="29" t="s">
         <v>162</v>
       </c>
@@ -4478,213 +4485,215 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="31"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="30"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="31"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="30"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="31"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="31"/>
       <c r="H23" s="30"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="31"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="31"/>
       <c r="H25" s="30"/>
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="31"/>
       <c r="H26" s="30"/>
       <c r="I26" s="21"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="231">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -916,6 +916,42 @@
   </si>
   <si>
     <t xml:space="preserve"> - 스킬 버튼을 한번 누를시 최대 3초간 반복 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4_MaxTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4_AmpAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4_SLAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 총 사용 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 공격타입 엠프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 공격타입 스포트 라이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 공격타입 무대 효과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4_SEAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 총 사용 시간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,6 +1247,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3151,13 +3190,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3169,13 +3208,13 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -3185,13 +3224,13 @@
       <c r="C6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -3201,13 +3240,13 @@
       <c r="C7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -3217,13 +3256,13 @@
       <c r="C8" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -3257,11 +3296,11 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -3308,18 +3347,18 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
@@ -3588,12 +3627,12 @@
       <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="24" t="s">
         <v>163</v>
       </c>
@@ -3608,12 +3647,12 @@
       <c r="B33" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="25">
         <v>10</v>
       </c>
@@ -3628,12 +3667,12 @@
       <c r="B34" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="26">
         <v>1.5</v>
       </c>
@@ -3646,12 +3685,12 @@
       <c r="B35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="25">
         <v>2</v>
       </c>
@@ -3666,12 +3705,12 @@
       <c r="B36" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="25">
         <v>6</v>
       </c>
@@ -3686,12 +3725,12 @@
       <c r="B37" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="25">
         <v>10</v>
       </c>
@@ -3933,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4054,12 +4093,12 @@
       <c r="B18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="24" t="s">
         <v>162</v>
       </c>
@@ -4074,12 +4113,12 @@
       <c r="B19" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="26">
         <v>0.5</v>
       </c>
@@ -4092,12 +4131,12 @@
       <c r="B20" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="26">
         <v>0.5</v>
       </c>
@@ -4110,12 +4149,12 @@
       <c r="B21" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="26">
         <v>0.5</v>
       </c>
@@ -4128,12 +4167,12 @@
       <c r="B22" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="25">
         <v>5</v>
       </c>
@@ -4146,12 +4185,12 @@
       <c r="B23" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="25">
         <v>10</v>
       </c>
@@ -4166,12 +4205,12 @@
       <c r="B24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="27">
         <v>1</v>
       </c>
@@ -4184,12 +4223,12 @@
       <c r="B25" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="27">
         <v>20</v>
       </c>
@@ -4374,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4468,12 +4507,12 @@
       <c r="B19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="29" t="s">
         <v>162</v>
       </c>
@@ -4488,70 +4527,88 @@
       <c r="B20" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="31"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="B21" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="31"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+      <c r="B22" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="31"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="B23" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="31"/>
       <c r="H23" s="30"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="B24" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="31"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="31"/>
       <c r="H25" s="30"/>
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="31"/>
       <c r="H26" s="30"/>
       <c r="I26" s="21"/>

--- a/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스킬_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -3548,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB145"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3674,7 +3674,7 @@
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>64</v>
@@ -3692,7 +3692,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>61</v>
@@ -4413,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
